--- a/biology/Zoologie/Diagramma_pictum/Diagramma_pictum.xlsx
+++ b/biology/Zoologie/Diagramma_pictum/Diagramma_pictum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Diagramma pictum · Diagramme peint, Diagramme ponctué, Castex, Diagramme voilier
-Diagramma pictum, communément nommé Diagramme peint, Diagramme ponctué ou Castex [2], est une espèce de poisson marin de la famille des Haemulidae.
-Le Diagramme peint est présent dans les eaux tropicales de l'Indo-Ouest Pacifique, Mer Rouge incluse[3].
-Sa taille maximale est de 100 cm mais sa taille commune est de 55 cm [3].
+Diagramma pictum, communément nommé Diagramme peint, Diagramme ponctué ou Castex , est une espèce de poisson marin de la famille des Haemulidae.
+Le Diagramme peint est présent dans les eaux tropicales de l'Indo-Ouest Pacifique, Mer Rouge incluse.
+Sa taille maximale est de 100 cm mais sa taille commune est de 55 cm .
 </t>
         </is>
       </c>
@@ -514,10 +526,12 @@
           <t>Parasites</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Comme les autres poissons, cette espèce est l'hôte de nombreux parasites. En Nouvelle-Calédonie, on a trouvé dans son intestin le digène Lepocreadiidae Holorchis castex et le digène Monorchiidae  Lasiotocus plectorhynchi [4] et dans son estomac le nématode Cystidicolidae Metabronemoides mirabilis[5].
-La littérature[6] mentionne aussi la présence d'un nématode Camallanidae, d'un isopode, et d'une sangsue, tous non identifiés au niveau spécifique.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Comme les autres poissons, cette espèce est l'hôte de nombreux parasites. En Nouvelle-Calédonie, on a trouvé dans son intestin le digène Lepocreadiidae Holorchis castex et le digène Monorchiidae  Lasiotocus plectorhynchi  et dans son estomac le nématode Cystidicolidae Metabronemoides mirabilis.
+La littérature mentionne aussi la présence d'un nématode Camallanidae, d'un isopode, et d'une sangsue, tous non identifiés au niveau spécifique.
 </t>
         </is>
       </c>
@@ -546,7 +560,9 @@
           <t>Synonymes taxonomiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Diagramma picta (Thunberg, 1792) (orthographe incorrecte)
@@ -584,9 +600,11 @@
           <t>Liste des espèces et sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (17 octobre 2013)[7] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (17 octobre 2013) :
 Diagramma picta
 sous-espèce Diagramma picta picta</t>
         </is>
